--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA226FF-5DD5-46AB-84DB-DA225FCAAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826133C-1A97-4A34-9EF7-8AB576F08C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>누적 요괴 추가 소환 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 문파 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귤귤귤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A38" sqref="A38:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +586,7 @@
     <col min="5" max="5" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +602,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -608,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -625,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -642,7 +657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -659,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -676,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -693,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -710,7 +725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -727,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -744,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -761,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -778,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -795,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -812,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -829,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1118,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1135,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1186,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1201,6 +1216,206 @@
       </c>
       <c r="E37">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826133C-1A97-4A34-9EF7-8AB576F08C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E849C9-3715-4BC4-AB0A-F62E64E860D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-3870" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1418,6 +1418,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E849C9-3715-4BC4-AB0A-F62E64E860D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9984CD-E228-4F81-8B6A-E42D45D2C7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-3870" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9984CD-E228-4F81-8B6A-E42D45D2C7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C676BE4-F768-4A58-81CE-9C53835E338D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-3870" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1438,6 +1438,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
